--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3981.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3981.xlsx
@@ -7,8 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,6 +428,69 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_HAND</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>BOWL_STYLE</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>3981</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Joseph Edward Root</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Right Handed</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Right Arm Off Break</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:J159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -452,7 +517,7 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
@@ -492,7 +557,6 @@
           <t>1</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>11/01/2013</t>
@@ -500,7 +564,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3459</t>
+          <t>3459</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -552,7 +616,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3461</t>
+          <t>3461</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -604,7 +668,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3463</t>
+          <t>3463</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -656,7 +720,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3468</t>
+          <t>3468</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -708,7 +772,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3470</t>
+          <t>3470</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -760,7 +824,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3476</t>
+          <t>3476</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -812,7 +876,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3477</t>
+          <t>3477</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -864,7 +928,7 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3479</t>
+          <t>3479</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -916,7 +980,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3501</t>
+          <t>3501</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -968,7 +1032,7 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3503</t>
+          <t>3503</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -1020,7 +1084,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3504</t>
+          <t>3504</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -1072,7 +1136,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3507</t>
+          <t>3507</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -1124,7 +1188,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3512</t>
+          <t>3512</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -1176,7 +1240,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3515</t>
+          <t>3515</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1228,7 +1292,7 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3517</t>
+          <t>3517</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -1280,7 +1344,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3519</t>
+          <t>3519</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1332,7 +1396,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3555</t>
+          <t>3555</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -1384,7 +1448,7 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3557</t>
+          <t>3557</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1436,7 +1500,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3558</t>
+          <t>3558</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1488,7 +1552,7 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3559</t>
+          <t>3559</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -1540,7 +1604,7 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3599</t>
+          <t>3599</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1592,7 +1656,7 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3600</t>
+          <t>3600</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1644,7 +1708,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3608</t>
+          <t>3608</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1696,7 +1760,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3622</t>
+          <t>3622</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1748,7 +1812,7 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3625</t>
+          <t>3625</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
@@ -1800,7 +1864,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3629</t>
+          <t>3629</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1852,7 +1916,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3637</t>
+          <t>3637</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -1904,7 +1968,7 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3638</t>
+          <t>3638</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -1956,7 +2020,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3639</t>
+          <t>3639</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1996,7 +2060,6 @@
           <t>30</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>28/05/2014</t>
@@ -2004,7 +2067,7 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3640</t>
+          <t>3640</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -2056,7 +2119,7 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3641</t>
+          <t>3641</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -2108,7 +2171,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3642</t>
+          <t>3642</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -2160,7 +2223,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3664</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2212,7 +2275,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3667</t>
+          <t>3667</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2264,7 +2327,7 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3670</t>
+          <t>3670</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -2316,7 +2379,7 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3672</t>
+          <t>3672</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -2368,7 +2431,7 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3703</t>
+          <t>3703</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
@@ -2420,7 +2483,7 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3706</t>
+          <t>3706</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -2472,7 +2535,7 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3710</t>
+          <t>3710</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -2524,7 +2587,7 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3712</t>
+          <t>3712</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -2576,7 +2639,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3714</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -2628,7 +2691,7 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3716</t>
+          <t>3716</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -2680,7 +2743,7 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3718</t>
+          <t>3718</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
@@ -2732,7 +2795,7 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3727</t>
+          <t>3727</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
@@ -2772,7 +2835,6 @@
           <t>45</t>
         </is>
       </c>
-      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>20/01/2015</t>
@@ -2780,7 +2842,7 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3735</t>
+          <t>3735</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -2832,7 +2894,7 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3738</t>
+          <t>3738</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2884,7 +2946,7 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3744</t>
+          <t>3744</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
@@ -2936,7 +2998,7 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3746</t>
+          <t>3746</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2988,7 +3050,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3749</t>
+          <t>3749</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
@@ -3040,7 +3102,7 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3756</t>
+          <t>3756</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
@@ -3092,7 +3154,7 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3761</t>
+          <t>3761</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -3144,7 +3206,7 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3769</t>
+          <t>3769</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
@@ -3196,7 +3258,7 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3780</t>
+          <t>3780</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
@@ -3236,7 +3298,6 @@
           <t>54</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>13/03/2015</t>
@@ -3244,7 +3305,7 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3785</t>
+          <t>3785</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
@@ -3296,7 +3357,7 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3804</t>
+          <t>3804</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -3348,7 +3409,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3805</t>
+          <t>3805</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3400,7 +3461,7 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3806</t>
+          <t>3806</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
@@ -3452,7 +3513,7 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3807</t>
+          <t>3807</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -3504,7 +3565,7 @@
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3809</t>
+          <t>3809</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -3556,7 +3617,7 @@
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3858</t>
+          <t>3858</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -3608,7 +3669,7 @@
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3859</t>
+          <t>3859</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -3660,7 +3721,7 @@
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3861</t>
+          <t>3861</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -3712,7 +3773,7 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3863</t>
+          <t>3863</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
@@ -3764,7 +3825,7 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3885</t>
+          <t>3885</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
@@ -3816,7 +3877,7 @@
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3887</t>
+          <t>3887</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -3868,7 +3929,7 @@
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3889</t>
+          <t>3889</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
@@ -3920,7 +3981,7 @@
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3890</t>
+          <t>3890</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
@@ -3972,7 +4033,7 @@
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3891</t>
+          <t>3891</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -4024,7 +4085,7 @@
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3904</t>
+          <t>3904</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -4064,7 +4125,6 @@
           <t>70</t>
         </is>
       </c>
-      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>24/06/2016</t>
@@ -4072,7 +4132,7 @@
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3906</t>
+          <t>3906</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -4124,7 +4184,7 @@
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3908</t>
+          <t>3908</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -4176,7 +4236,7 @@
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3910</t>
+          <t>3910</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -4228,7 +4288,7 @@
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3911</t>
+          <t>3911</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
@@ -4280,7 +4340,7 @@
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3925</t>
+          <t>3925</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
@@ -4332,7 +4392,7 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3926</t>
+          <t>3926</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -4384,7 +4444,7 @@
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3928</t>
+          <t>3928</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -4436,7 +4496,7 @@
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3930</t>
+          <t>3930</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
@@ -4488,7 +4548,7 @@
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3932</t>
+          <t>3932</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
@@ -4540,7 +4600,7 @@
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3974</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
@@ -4592,7 +4652,7 @@
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3976</t>
+          <t>3976</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
@@ -4644,7 +4704,7 @@
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4001</t>
+          <t>4001</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
@@ -4696,7 +4756,7 @@
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4004</t>
+          <t>4004</t>
         </is>
       </c>
       <c r="E83" t="inlineStr">
@@ -4748,7 +4808,7 @@
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4005</t>
+          <t>4005</t>
         </is>
       </c>
       <c r="E84" t="inlineStr">
@@ -4800,7 +4860,7 @@
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4020</t>
+          <t>4020</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -4852,7 +4912,7 @@
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4021</t>
+          <t>4021</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -4904,7 +4964,7 @@
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4028</t>
+          <t>4028</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -4956,7 +5016,7 @@
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4029</t>
+          <t>4029</t>
         </is>
       </c>
       <c r="E88" t="inlineStr">
@@ -5008,7 +5068,7 @@
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4030</t>
+          <t>4030</t>
         </is>
       </c>
       <c r="E89" t="inlineStr">
@@ -5060,7 +5120,7 @@
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4031</t>
+          <t>4031</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
@@ -5112,7 +5172,7 @@
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4036</t>
+          <t>4036</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
@@ -5164,7 +5224,7 @@
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4041</t>
+          <t>4041</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -5216,7 +5276,7 @@
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4045</t>
+          <t>4045</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
@@ -5268,7 +5328,7 @@
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4068</t>
+          <t>4068</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
@@ -5308,7 +5368,6 @@
           <t>94</t>
         </is>
       </c>
-      <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
           <t>21/09/2017</t>
@@ -5316,7 +5375,7 @@
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4070</t>
+          <t>4070</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
@@ -5368,7 +5427,7 @@
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4072</t>
+          <t>4072</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -5420,7 +5479,7 @@
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4073</t>
+          <t>4073</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -5472,7 +5531,7 @@
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4075</t>
+          <t>4075</t>
         </is>
       </c>
       <c r="E98" t="inlineStr">
@@ -5524,7 +5583,7 @@
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4108</t>
+          <t>4108</t>
         </is>
       </c>
       <c r="E99" t="inlineStr">
@@ -5576,7 +5635,7 @@
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4115</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
@@ -5628,7 +5687,7 @@
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4117</t>
+          <t>4117</t>
         </is>
       </c>
       <c r="E101" t="inlineStr">
@@ -5680,7 +5739,7 @@
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4123</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
@@ -5732,7 +5791,7 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4125</t>
+          <t>4125</t>
         </is>
       </c>
       <c r="E103" t="inlineStr">
@@ -5784,7 +5843,7 @@
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4137</t>
+          <t>4137</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
@@ -5836,7 +5895,7 @@
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4138</t>
+          <t>4138</t>
         </is>
       </c>
       <c r="E105" t="inlineStr">
@@ -5888,7 +5947,7 @@
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4139</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -5940,7 +5999,7 @@
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4146</t>
+          <t>4146</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
@@ -5992,7 +6051,7 @@
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4149</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
@@ -6044,7 +6103,7 @@
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4165</t>
+          <t>4165</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
@@ -6096,7 +6155,7 @@
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4166</t>
+          <t>4166</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
@@ -6148,7 +6207,7 @@
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4167</t>
+          <t>4167</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -6200,7 +6259,7 @@
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4168</t>
+          <t>4168</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -6252,7 +6311,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4169</t>
+          <t>4169</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -6304,7 +6363,7 @@
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4170</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -6356,7 +6415,7 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4171</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -6408,7 +6467,7 @@
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4173</t>
+          <t>4173</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
@@ -6460,7 +6519,7 @@
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4175</t>
+          <t>4175</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -6512,7 +6571,7 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4209</t>
+          <t>4209</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -6564,7 +6623,7 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4210</t>
+          <t>4210</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -6616,7 +6675,7 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4211</t>
+          <t>4211</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -6668,7 +6727,7 @@
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4212</t>
+          <t>4212</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
@@ -6720,7 +6779,7 @@
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4215</t>
+          <t>4215</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -6772,7 +6831,7 @@
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4253</t>
+          <t>4253</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
@@ -6824,7 +6883,7 @@
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4254</t>
+          <t>4254</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
@@ -6864,7 +6923,6 @@
           <t>124</t>
         </is>
       </c>
-      <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -6872,7 +6930,7 @@
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4255</t>
+          <t>4255</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -6924,7 +6982,7 @@
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4256</t>
+          <t>4256</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -6976,7 +7034,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4260</t>
+          <t>4260</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -7028,7 +7086,7 @@
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4284</t>
+          <t>4284</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -7068,7 +7126,6 @@
           <t>128</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr">
         <is>
           <t>08/05/2019</t>
@@ -7076,7 +7133,7 @@
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4287</t>
+          <t>4287</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
@@ -7128,7 +7185,7 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4292</t>
+          <t>4292</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -7180,7 +7237,7 @@
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4294</t>
+          <t>4294</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -7232,7 +7289,7 @@
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4297</t>
+          <t>4297</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -7284,7 +7341,7 @@
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4300</t>
+          <t>4300</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -7336,7 +7393,7 @@
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4303</t>
+          <t>4303</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
@@ -7388,7 +7445,7 @@
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4308</t>
+          <t>4308</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
@@ -7440,7 +7497,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4314</t>
+          <t>4314</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -7492,7 +7549,7 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4321</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -7544,7 +7601,7 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4326</t>
+          <t>4326</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -7596,7 +7653,7 @@
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4331</t>
+          <t>4331</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -7648,7 +7705,7 @@
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4336</t>
+          <t>4336</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -7700,7 +7757,7 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4342</t>
+          <t>4342</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
@@ -7752,7 +7809,7 @@
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4346</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
@@ -7804,7 +7861,7 @@
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4354</t>
+          <t>4354</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
@@ -7856,7 +7913,7 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4355</t>
+          <t>4355</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
@@ -7908,7 +7965,7 @@
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4401</t>
+          <t>4401</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
@@ -7948,7 +8005,6 @@
           <t>145</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr">
         <is>
           <t>07/02/2020</t>
@@ -7956,7 +8012,7 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4405</t>
+          <t>4405</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -8008,7 +8064,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4408</t>
+          <t>4408</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -8060,7 +8116,7 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4429</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -8112,7 +8168,7 @@
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4430</t>
+          <t>4430</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -8164,7 +8220,7 @@
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4431</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -8216,7 +8272,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4469</t>
+          <t>4469</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -8268,7 +8324,7 @@
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4470</t>
+          <t>4470</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -8308,7 +8364,6 @@
           <t>152</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr">
         <is>
           <t>04/07/2021</t>
@@ -8316,7 +8371,7 @@
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4471</t>
+          <t>4471</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
@@ -8368,7 +8423,7 @@
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4609</t>
+          <t>4609</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
@@ -8420,7 +8475,7 @@
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4613</t>
+          <t>4613</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -8472,7 +8527,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4618</t>
+          <t>4618</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -8524,7 +8579,7 @@
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4619</t>
+          <t>4619</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -8576,7 +8631,7 @@
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4620</t>
+          <t>4620</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -8616,7 +8671,6 @@
           <t>158</t>
         </is>
       </c>
-      <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr">
         <is>
           <t>24/07/2022</t>
@@ -8624,7 +8678,7 @@
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4622</t>
+          <t>4622</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -8663,7 +8717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8685,7 +8739,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>MATCH_CARD_LINK</t>
+          <t>MATCH_CODE</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -8722,7 +8776,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3459</t>
+          <t>3459</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -8759,7 +8813,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3461</t>
+          <t>3461</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -8796,7 +8850,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3468</t>
+          <t>3468</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -8833,7 +8887,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3470</t>
+          <t>3470</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -8870,7 +8924,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3501</t>
+          <t>3501</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -8907,7 +8961,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3503</t>
+          <t>3503</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -8944,7 +8998,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3504</t>
+          <t>3504</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -8981,7 +9035,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3507</t>
+          <t>3507</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -9018,7 +9072,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3512</t>
+          <t>3512</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -9055,7 +9109,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3517</t>
+          <t>3517</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -9092,7 +9146,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3555</t>
+          <t>3555</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -9129,7 +9183,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3558</t>
+          <t>3558</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -9166,7 +9220,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3559</t>
+          <t>3559</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -9203,7 +9257,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3599</t>
+          <t>3599</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -9240,7 +9294,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3600</t>
+          <t>3600</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -9277,7 +9331,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3622</t>
+          <t>3622</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -9314,7 +9368,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3625</t>
+          <t>3625</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -9351,7 +9405,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3629</t>
+          <t>3629</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -9388,7 +9442,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3638</t>
+          <t>3638</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -9425,7 +9479,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3639</t>
+          <t>3639</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -9462,7 +9516,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3641</t>
+          <t>3641</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -9499,7 +9553,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3642</t>
+          <t>3642</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -9536,7 +9590,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3664</t>
+          <t>3664</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -9573,7 +9627,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3667</t>
+          <t>3667</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -9610,7 +9664,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3703</t>
+          <t>3703</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -9647,7 +9701,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3710</t>
+          <t>3710</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -9684,7 +9738,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3712</t>
+          <t>3712</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -9721,7 +9775,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3714</t>
+          <t>3714</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -9758,7 +9812,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3716</t>
+          <t>3716</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -9795,7 +9849,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3718</t>
+          <t>3718</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -9832,7 +9886,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3749</t>
+          <t>3749</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -9869,7 +9923,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3761</t>
+          <t>3761</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -9906,7 +9960,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3769</t>
+          <t>3769</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -9943,7 +9997,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3780</t>
+          <t>3780</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -9980,7 +10034,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3805</t>
+          <t>3805</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -10017,7 +10071,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3806</t>
+          <t>3806</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -10054,7 +10108,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3807</t>
+          <t>3807</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -10091,7 +10145,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3858</t>
+          <t>3858</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -10128,7 +10182,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3906</t>
+          <t>3906</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -10165,7 +10219,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3925</t>
+          <t>3925</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -10202,7 +10256,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=3974</t>
+          <t>3974</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -10239,7 +10293,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4001</t>
+          <t>4001</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -10276,7 +10330,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4020</t>
+          <t>4020</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -10313,7 +10367,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4021</t>
+          <t>4021</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -10350,7 +10404,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4028</t>
+          <t>4028</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -10387,7 +10441,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4029</t>
+          <t>4029</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -10424,7 +10478,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4031</t>
+          <t>4031</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -10461,7 +10515,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4073</t>
+          <t>4073</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -10498,7 +10552,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4115</t>
+          <t>4115</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -10535,7 +10589,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4117</t>
+          <t>4117</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -10572,7 +10626,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4123</t>
+          <t>4123</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -10609,7 +10663,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4137</t>
+          <t>4137</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -10646,7 +10700,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4139</t>
+          <t>4139</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -10683,7 +10737,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4149</t>
+          <t>4149</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -10720,7 +10774,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4166</t>
+          <t>4166</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -10757,7 +10811,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4167</t>
+          <t>4167</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -10794,7 +10848,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4168</t>
+          <t>4168</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -10831,7 +10885,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4169</t>
+          <t>4169</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -10868,7 +10922,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4170</t>
+          <t>4170</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -10905,7 +10959,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4171</t>
+          <t>4171</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -10942,7 +10996,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4287</t>
+          <t>4287</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -10979,7 +11033,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4321</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -11016,7 +11070,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4331</t>
+          <t>4331</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -11053,7 +11107,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4346</t>
+          <t>4346</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -11090,7 +11144,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4401</t>
+          <t>4401</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -11127,7 +11181,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4405</t>
+          <t>4405</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -11164,7 +11218,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4408</t>
+          <t>4408</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -11201,7 +11255,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4431</t>
+          <t>4431</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -11238,7 +11292,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>http://www.howstat.com/cricket/Statistics/Matches/MatchScorecard_ODI.asp?MatchCode=4618</t>
+          <t>4618</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -11264,6 +11318,533 @@
       <c r="G70" t="inlineStr">
         <is>
           <t>0/4</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>BATTING_POSITION</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_4</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>NUM_6</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_RUNS_OF_TOTAL</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MAN_OF_MATCH</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4336</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>3.62%</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4342</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>3</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>13.06%</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4346</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4354</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.68%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4401</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4405</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4408</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.36%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>16.88%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4469</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>41.80%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4470</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.87%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4471</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr"/>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4.47%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr"/>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4620</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.50%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4622</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
         </is>
       </c>
     </row>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3981.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3981.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11438,415 +11439,648 @@
           <t>4346</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4354</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>21.68%</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>4355</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>4401</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>4405</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>4408</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>4429</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>0.36%</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>4430</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>16.88%</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>4469</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>41.80%</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>4470</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>27.87%</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>4471</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>4609</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>4613</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>4.47%</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>4619</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>4620</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>0.50%</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>4622</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>NO</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>MATCH_CODE</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MAIDEN_OVERS</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>PERCENT_WICKETS_OF_ALL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>4117</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>4123</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>4137</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4354</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>21.68%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4139</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>4355</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
+          <t>4149</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4401</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
+          <t>4166</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>4405</t>
+          <t>4167</t>
         </is>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>4408</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
+          <t>4168</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>4429</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.36%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4169</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>4430</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>16.88%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4170</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>4431</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="inlineStr">
+          <t>4171</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+      <c r="C12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>4469</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>41.80%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4287</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>4470</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
+          <t>4321</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>27.87%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4471</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
+          <t>4331</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>4609</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4346</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4613</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.47%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4401</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
+      <c r="C17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>4618</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
+          <t>4405</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr"/>
+      <c r="C18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4619</t>
+          <t>4408</t>
         </is>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>4620</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
+          <t>4431</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.50%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
+          <t>20.00%</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>4622</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
+          <t>4618</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
       <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3981.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3981.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ODI Bowling Extra" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6936,7 +6935,7 @@
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -7139,7 +7138,7 @@
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -8018,7 +8017,7 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -8377,7 +8376,7 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -8684,7 +8683,7 @@
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t> </t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -11439,6 +11438,10 @@
           <t>4346</t>
         </is>
       </c>
+      <c r="B4" t="inlineStr"/>
+      <c r="C4" t="inlineStr"/>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11481,6 +11484,10 @@
           <t>4355</t>
         </is>
       </c>
+      <c r="B6" t="inlineStr"/>
+      <c r="C6" t="inlineStr"/>
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11493,6 +11500,10 @@
           <t>4401</t>
         </is>
       </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
       <c r="F7" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11505,6 +11516,10 @@
           <t>4405</t>
         </is>
       </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr"/>
       <c r="F8" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11517,6 +11532,10 @@
           <t>4408</t>
         </is>
       </c>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11602,6 +11621,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E12" t="inlineStr"/>
       <c r="F12" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11674,6 +11694,10 @@
           <t>4471</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr"/>
+      <c r="C15" t="inlineStr"/>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11699,6 +11723,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E16" t="inlineStr"/>
       <c r="F16" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11754,6 +11779,7 @@
           <t>0</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr"/>
       <c r="F18" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11766,6 +11792,10 @@
           <t>4619</t>
         </is>
       </c>
+      <c r="B19" t="inlineStr"/>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr"/>
       <c r="F19" t="inlineStr">
         <is>
           <t>NO</t>
@@ -11808,279 +11838,15 @@
           <t>4622</t>
         </is>
       </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr"/>
       <c r="F21" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>MAIDEN_OVERS</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_WICKETS_OF_ALL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4117</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4123</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4137</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4139</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4149</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4166</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4167</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4168</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4169</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4170</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4171</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4287</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4321</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4331</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4346</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4401</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4405</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4408</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4431</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>20.00%</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4618</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/bin/sheets/main_db/teams/ENG/PlayerPerformance_3981.xlsx
+++ b/bin/sheets/main_db/teams/ENG/PlayerPerformance_3981.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Player Info" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="ODI Batting" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="ODI Bowling" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="ODI Batting Extra" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -557,6 +556,7 @@
           <t>1</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr"/>
       <c r="C2" t="inlineStr">
         <is>
           <t>11/01/2013</t>
@@ -2060,6 +2060,7 @@
           <t>30</t>
         </is>
       </c>
+      <c r="B31" t="inlineStr"/>
       <c r="C31" t="inlineStr">
         <is>
           <t>28/05/2014</t>
@@ -2835,6 +2836,7 @@
           <t>45</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr">
         <is>
           <t>20/01/2015</t>
@@ -3298,6 +3300,7 @@
           <t>54</t>
         </is>
       </c>
+      <c r="B55" t="inlineStr"/>
       <c r="C55" t="inlineStr">
         <is>
           <t>13/03/2015</t>
@@ -4125,6 +4128,7 @@
           <t>70</t>
         </is>
       </c>
+      <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr">
         <is>
           <t>24/06/2016</t>
@@ -5368,6 +5372,7 @@
           <t>94</t>
         </is>
       </c>
+      <c r="B95" t="inlineStr"/>
       <c r="C95" t="inlineStr">
         <is>
           <t>21/09/2017</t>
@@ -6923,6 +6928,7 @@
           <t>124</t>
         </is>
       </c>
+      <c r="B125" t="inlineStr"/>
       <c r="C125" t="inlineStr">
         <is>
           <t>25/02/2019</t>
@@ -7126,6 +7132,7 @@
           <t>128</t>
         </is>
       </c>
+      <c r="B129" t="inlineStr"/>
       <c r="C129" t="inlineStr">
         <is>
           <t>08/05/2019</t>
@@ -8005,6 +8012,7 @@
           <t>145</t>
         </is>
       </c>
+      <c r="B146" t="inlineStr"/>
       <c r="C146" t="inlineStr">
         <is>
           <t>07/02/2020</t>
@@ -8364,6 +8372,7 @@
           <t>152</t>
         </is>
       </c>
+      <c r="B153" t="inlineStr"/>
       <c r="C153" t="inlineStr">
         <is>
           <t>04/07/2021</t>
@@ -8671,6 +8680,7 @@
           <t>158</t>
         </is>
       </c>
+      <c r="B159" t="inlineStr"/>
       <c r="C159" t="inlineStr">
         <is>
           <t>24/07/2022</t>
@@ -11324,531 +11334,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>MATCH_CODE</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>BATTING_POSITION</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_4</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>NUM_6</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>PERCENT_RUNS_OF_TOTAL</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MAN_OF_MATCH</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>4336</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>3</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>3.62%</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>4342</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>3</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>13.06%</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>4346</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>4354</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>3</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>21.68%</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>4355</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="inlineStr"/>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>4401</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4405</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>4408</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>4429</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>3</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>0.36%</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>4430</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>16.88%</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>4431</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>3</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr"/>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>4469</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>3</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>41.80%</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>4470</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>27.87%</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>4471</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="inlineStr"/>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr"/>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>4609</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>3</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>4613</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>3</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.47%</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>4618</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr"/>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>4619</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>4620</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>0.50%</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>4622</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>NO</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>